--- a/data.xlsx
+++ b/data.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" iterateCount="1"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="482">
   <si>
     <t>Company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3081,7 +3080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3141,9 +3140,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3454,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="A400" sqref="A398:A400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3493,7 +3489,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B3" t="s">
@@ -3513,7 +3509,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1">
-      <c r="A4" s="21"/>
+      <c r="A4" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>325</v>
       </c>
@@ -3531,7 +3529,9 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="21"/>
+      <c r="A5" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
@@ -3560,7 +3560,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="4" t="s">
         <v>481</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3580,7 +3580,9 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21"/>
+      <c r="A9" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
@@ -3598,7 +3600,9 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="21"/>
+      <c r="A10" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
@@ -3616,7 +3620,9 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21"/>
+      <c r="A11" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>345</v>
       </c>
@@ -3634,7 +3640,9 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21"/>
+      <c r="A12" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
@@ -3652,7 +3660,9 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21"/>
+      <c r="A13" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>360</v>
       </c>
@@ -3670,7 +3680,9 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="21"/>
+      <c r="A14" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
@@ -3688,7 +3700,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1">
-      <c r="A15" s="21"/>
+      <c r="A15" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>358</v>
       </c>
@@ -3706,7 +3720,9 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21"/>
+      <c r="A16" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>342</v>
       </c>
@@ -3724,7 +3740,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1">
-      <c r="A17" s="21"/>
+      <c r="A17" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
@@ -3742,7 +3760,9 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="21"/>
+      <c r="A18" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B18" s="6" t="s">
         <v>361</v>
       </c>
@@ -3760,7 +3780,9 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="21"/>
+      <c r="A19" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B19" s="6" t="s">
         <v>363</v>
       </c>
@@ -3778,7 +3800,9 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="21"/>
+      <c r="A20" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B20" s="6" t="s">
         <v>359</v>
       </c>
@@ -3796,7 +3820,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="6" customFormat="1">
-      <c r="A21" s="21"/>
+      <c r="A21" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
@@ -3814,7 +3840,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="6" customFormat="1">
-      <c r="A22" s="21"/>
+      <c r="A22" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B22" s="6" t="s">
         <v>356</v>
       </c>
@@ -3832,7 +3860,9 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="21"/>
+      <c r="A23" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B23" s="6" t="s">
         <v>162</v>
       </c>
@@ -3850,7 +3880,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="6" customFormat="1">
-      <c r="A24" s="21"/>
+      <c r="A24" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B24" s="6" t="s">
         <v>188</v>
       </c>
@@ -3868,7 +3900,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="6" customFormat="1">
-      <c r="A25" s="21"/>
+      <c r="A25" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B25" s="6" t="s">
         <v>383</v>
       </c>
@@ -3886,7 +3920,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="6" customFormat="1">
-      <c r="A26" s="21"/>
+      <c r="A26" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -3904,7 +3940,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="6" customFormat="1">
-      <c r="A27" s="21"/>
+      <c r="A27" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B27" s="6" t="s">
         <v>12</v>
       </c>
@@ -3922,7 +3960,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="6" customFormat="1">
-      <c r="A28" s="21"/>
+      <c r="A28" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B28" s="6" t="s">
         <v>382</v>
       </c>
@@ -3940,7 +3980,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="6" customFormat="1">
-      <c r="A29" s="21"/>
+      <c r="A29" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B29" s="6" t="s">
         <v>362</v>
       </c>
@@ -3958,7 +4000,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="6" customFormat="1">
-      <c r="A30" s="21"/>
+      <c r="A30" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B30" s="6" t="s">
         <v>364</v>
       </c>
@@ -3976,7 +4020,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="6" customFormat="1">
-      <c r="A31" s="21"/>
+      <c r="A31" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B31" s="6" t="s">
         <v>477</v>
       </c>
@@ -3994,7 +4040,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="6" customFormat="1">
-      <c r="A32" s="21"/>
+      <c r="A32" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B32" s="6" t="s">
         <v>478</v>
       </c>
@@ -4012,7 +4060,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="6" customFormat="1">
-      <c r="A33" s="21"/>
+      <c r="A33" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="B33" s="6" t="s">
         <v>365</v>
       </c>
@@ -4041,7 +4091,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="6" customFormat="1">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="4" t="s">
         <v>332</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -4061,7 +4111,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="6" customFormat="1">
-      <c r="A37" s="21"/>
+      <c r="A37" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="B37" s="6" t="s">
         <v>475</v>
       </c>
@@ -4090,7 +4142,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="6" customFormat="1">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="4" t="s">
         <v>332</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -4110,7 +4162,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="6" customFormat="1">
-      <c r="A41" s="21"/>
+      <c r="A41" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="B41" s="6" t="s">
         <v>336</v>
       </c>
@@ -4128,7 +4182,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="6" customFormat="1">
-      <c r="A42" s="21"/>
+      <c r="A42" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="B42" s="6" t="s">
         <v>163</v>
       </c>
@@ -4146,7 +4202,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="6" customFormat="1">
-      <c r="A43" s="21"/>
+      <c r="A43" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="B43" s="6" t="s">
         <v>339</v>
       </c>
@@ -4164,7 +4222,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="6" customFormat="1">
-      <c r="A44" s="21"/>
+      <c r="A44" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="B44" s="6" t="s">
         <v>337</v>
       </c>
@@ -4182,7 +4242,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="6" customFormat="1">
-      <c r="A45" s="21"/>
+      <c r="A45" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="B45" s="6" t="s">
         <v>340</v>
       </c>
@@ -4200,7 +4262,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="6" customFormat="1">
-      <c r="A46" s="21"/>
+      <c r="A46" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="B46" s="6" t="s">
         <v>248</v>
       </c>
@@ -4229,7 +4293,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="6" customFormat="1">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="4" t="s">
         <v>332</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -4249,7 +4313,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" s="6" customFormat="1">
-      <c r="A50" s="21"/>
+      <c r="A50" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="B50" s="6" t="s">
         <v>343</v>
       </c>
@@ -4278,7 +4344,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" s="6" customFormat="1">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="4" t="s">
         <v>332</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -4298,7 +4364,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" s="6" customFormat="1">
-      <c r="A54" s="21"/>
+      <c r="A54" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="B54" s="6" t="s">
         <v>350</v>
       </c>
@@ -4316,7 +4384,9 @@
       </c>
     </row>
     <row r="55" spans="1:6" s="6" customFormat="1">
-      <c r="A55" s="21"/>
+      <c r="A55" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="B55" s="6" t="s">
         <v>471</v>
       </c>
@@ -4334,7 +4404,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" s="6" customFormat="1">
-      <c r="A56" s="21"/>
+      <c r="A56" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="B56" s="6" t="s">
         <v>472</v>
       </c>
@@ -4352,7 +4424,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="6" customFormat="1">
-      <c r="A57" s="21"/>
+      <c r="A57" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="B57" s="6" t="s">
         <v>473</v>
       </c>
@@ -4378,7 +4452,7 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -4398,7 +4472,9 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="21"/>
+      <c r="A61" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B61" s="6" t="s">
         <v>1</v>
       </c>
@@ -4416,7 +4492,9 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="21"/>
+      <c r="A62" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B62" s="6" t="s">
         <v>207</v>
       </c>
@@ -4434,7 +4512,9 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="21"/>
+      <c r="A63" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B63" s="6" t="s">
         <v>8</v>
       </c>
@@ -4452,7 +4532,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" s="6" customFormat="1">
-      <c r="A64" s="21"/>
+      <c r="A64" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B64" s="6" t="s">
         <v>245</v>
       </c>
@@ -4470,7 +4552,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" s="6" customFormat="1">
-      <c r="A65" s="21"/>
+      <c r="A65" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B65" s="6" t="s">
         <v>248</v>
       </c>
@@ -4488,7 +4572,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" s="6" customFormat="1">
-      <c r="A66" s="21"/>
+      <c r="A66" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B66" s="6" t="s">
         <v>244</v>
       </c>
@@ -4506,7 +4592,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" s="6" customFormat="1">
-      <c r="A67" s="21"/>
+      <c r="A67" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B67" s="6" t="s">
         <v>247</v>
       </c>
@@ -4524,7 +4612,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" s="6" customFormat="1">
-      <c r="A68" s="21"/>
+      <c r="A68" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B68" s="6" t="s">
         <v>249</v>
       </c>
@@ -4542,7 +4632,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" s="6" customFormat="1">
-      <c r="A69" s="21"/>
+      <c r="A69" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B69" s="6" t="s">
         <v>246</v>
       </c>
@@ -4560,7 +4652,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" s="6" customFormat="1">
-      <c r="A70" s="21"/>
+      <c r="A70" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B70" s="6" t="s">
         <v>250</v>
       </c>
@@ -4578,7 +4672,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" s="6" customFormat="1">
-      <c r="A71" s="21"/>
+      <c r="A71" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B71" s="6" t="s">
         <v>205</v>
       </c>
@@ -4604,7 +4700,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="6" customFormat="1">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -4624,7 +4720,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" s="6" customFormat="1">
-      <c r="A75" s="21"/>
+      <c r="A75" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B75" s="6" t="s">
         <v>469</v>
       </c>
@@ -4642,7 +4740,9 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="21"/>
+      <c r="A76" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B76" t="s">
         <v>468</v>
       </c>
@@ -4668,7 +4768,7 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B79" t="s">
@@ -4688,7 +4788,9 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="21"/>
+      <c r="A80" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
@@ -4706,7 +4808,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" s="6" customFormat="1">
-      <c r="A81" s="21"/>
+      <c r="A81" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B81" s="6" t="s">
         <v>21</v>
       </c>
@@ -4724,7 +4828,9 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="21"/>
+      <c r="A82" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B82" t="s">
         <v>370</v>
       </c>
@@ -4750,7 +4856,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" s="6" customFormat="1">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -4770,7 +4876,9 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="21"/>
+      <c r="A86" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="B86" t="s">
         <v>126</v>
       </c>
@@ -4788,7 +4896,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" s="6" customFormat="1">
-      <c r="A87" s="21"/>
+      <c r="A87" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="B87" s="6" t="s">
         <v>136</v>
       </c>
@@ -4807,7 +4917,9 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="21"/>
+      <c r="A88" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="B88" s="6" t="s">
         <v>127</v>
       </c>
@@ -4825,7 +4937,9 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="21"/>
+      <c r="A89" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="B89" s="6" t="s">
         <v>135</v>
       </c>
@@ -4843,7 +4957,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" s="6" customFormat="1">
-      <c r="A90" s="21"/>
+      <c r="A90" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="B90" s="6" t="s">
         <v>128</v>
       </c>
@@ -4861,7 +4977,9 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="21"/>
+      <c r="A91" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="B91" s="6" t="s">
         <v>352</v>
       </c>
@@ -4879,7 +4997,9 @@
       </c>
     </row>
     <row r="92" spans="1:6" s="6" customFormat="1">
-      <c r="A92" s="21"/>
+      <c r="A92" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="B92" s="6" t="s">
         <v>351</v>
       </c>
@@ -4897,7 +5017,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" s="6" customFormat="1">
-      <c r="A93" s="21"/>
+      <c r="A93" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="B93" s="6" t="s">
         <v>434</v>
       </c>
@@ -4915,7 +5037,9 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="21"/>
+      <c r="A94" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="B94" t="s">
         <v>132</v>
       </c>
@@ -4933,7 +5057,9 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="21"/>
+      <c r="A95" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="B95" t="s">
         <v>133</v>
       </c>
@@ -4959,7 +5085,7 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B98" t="s">
@@ -4979,7 +5105,9 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="21"/>
+      <c r="A99" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B99" t="s">
         <v>381</v>
       </c>
@@ -4997,7 +5125,9 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="21"/>
+      <c r="A100" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B100" t="s">
         <v>138</v>
       </c>
@@ -5015,7 +5145,9 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="21"/>
+      <c r="A101" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B101" t="s">
         <v>353</v>
       </c>
@@ -5041,7 +5173,7 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B104" t="s">
@@ -5061,7 +5193,9 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="21"/>
+      <c r="A105" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B105" t="s">
         <v>137</v>
       </c>
@@ -5079,7 +5213,9 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="21"/>
+      <c r="A106" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B106" t="s">
         <v>147</v>
       </c>
@@ -5097,7 +5233,9 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="21"/>
+      <c r="A107" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B107" t="s">
         <v>148</v>
       </c>
@@ -5123,7 +5261,7 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B110" t="s">
@@ -5143,7 +5281,9 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="21"/>
+      <c r="A111" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B111" t="s">
         <v>151</v>
       </c>
@@ -5162,7 +5302,9 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="21"/>
+      <c r="A112" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B112" t="s">
         <v>152</v>
       </c>
@@ -5180,7 +5322,9 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="21"/>
+      <c r="A113" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B113" t="s">
         <v>153</v>
       </c>
@@ -5198,7 +5342,9 @@
       </c>
     </row>
     <row r="114" spans="1:6" s="6" customFormat="1">
-      <c r="A114" s="21"/>
+      <c r="A114" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B114" s="6" t="s">
         <v>155</v>
       </c>
@@ -5216,7 +5362,9 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="21"/>
+      <c r="A115" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B115" t="s">
         <v>127</v>
       </c>
@@ -5234,7 +5382,9 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="21"/>
+      <c r="A116" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B116" t="s">
         <v>154</v>
       </c>
@@ -5252,7 +5402,9 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="21"/>
+      <c r="A117" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B117" t="s">
         <v>156</v>
       </c>
@@ -5270,7 +5422,9 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="21"/>
+      <c r="A118" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B118" t="s">
         <v>157</v>
       </c>
@@ -5288,7 +5442,9 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="21"/>
+      <c r="A119" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B119" t="s">
         <v>158</v>
       </c>
@@ -5306,7 +5462,9 @@
       </c>
     </row>
     <row r="120" spans="1:6" s="6" customFormat="1">
-      <c r="A120" s="21"/>
+      <c r="A120" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B120" t="s">
         <v>135</v>
       </c>
@@ -5324,7 +5482,9 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="21"/>
+      <c r="A121" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B121" t="s">
         <v>163</v>
       </c>
@@ -5340,6 +5500,9 @@
       <c r="F121">
         <v>1</v>
       </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="4"/>
     </row>
     <row r="123" spans="1:6" ht="19">
       <c r="A123" s="3" t="s">
@@ -5350,7 +5513,7 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="21" t="s">
+      <c r="A124" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B124" t="s">
@@ -5370,7 +5533,9 @@
       </c>
     </row>
     <row r="125" spans="1:6" s="6" customFormat="1">
-      <c r="A125" s="21"/>
+      <c r="A125" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B125" t="s">
         <v>168</v>
       </c>
@@ -5388,7 +5553,9 @@
       </c>
     </row>
     <row r="126" spans="1:6" s="6" customFormat="1">
-      <c r="A126" s="21"/>
+      <c r="A126" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B126" t="s">
         <v>167</v>
       </c>
@@ -5406,7 +5573,9 @@
       </c>
     </row>
     <row r="127" spans="1:6" s="6" customFormat="1">
-      <c r="A127" s="21"/>
+      <c r="A127" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B127" t="s">
         <v>166</v>
       </c>
@@ -5424,7 +5593,9 @@
       </c>
     </row>
     <row r="128" spans="1:6" s="6" customFormat="1">
-      <c r="A128" s="21"/>
+      <c r="A128" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B128" t="s">
         <v>165</v>
       </c>
@@ -5442,7 +5613,9 @@
       </c>
     </row>
     <row r="129" spans="1:6" s="6" customFormat="1">
-      <c r="A129" s="21"/>
+      <c r="A129" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B129" s="6" t="s">
         <v>342</v>
       </c>
@@ -5460,7 +5633,9 @@
       </c>
     </row>
     <row r="130" spans="1:6" s="6" customFormat="1">
-      <c r="A130" s="21"/>
+      <c r="A130" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B130" s="6" t="s">
         <v>177</v>
       </c>
@@ -5478,7 +5653,9 @@
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="21"/>
+      <c r="A131" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B131" s="6" t="s">
         <v>357</v>
       </c>
@@ -5496,7 +5673,9 @@
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="21"/>
+      <c r="A132" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B132" s="6" t="s">
         <v>171</v>
       </c>
@@ -5514,7 +5693,9 @@
       </c>
     </row>
     <row r="133" spans="1:6" s="6" customFormat="1">
-      <c r="A133" s="21"/>
+      <c r="A133" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B133" s="6" t="s">
         <v>172</v>
       </c>
@@ -5532,7 +5713,9 @@
       </c>
     </row>
     <row r="134" spans="1:6" s="6" customFormat="1">
-      <c r="A134" s="21"/>
+      <c r="A134" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B134" s="6" t="s">
         <v>380</v>
       </c>
@@ -5550,7 +5733,9 @@
       </c>
     </row>
     <row r="135" spans="1:6" s="6" customFormat="1">
-      <c r="A135" s="21"/>
+      <c r="A135" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B135" s="6" t="s">
         <v>170</v>
       </c>
@@ -5568,7 +5753,9 @@
       </c>
     </row>
     <row r="136" spans="1:6" s="6" customFormat="1">
-      <c r="A136" s="21"/>
+      <c r="A136" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B136" s="6" t="s">
         <v>176</v>
       </c>
@@ -5586,7 +5773,9 @@
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="21"/>
+      <c r="A137" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B137" t="s">
         <v>169</v>
       </c>
@@ -5604,7 +5793,9 @@
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="21"/>
+      <c r="A138" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B138" t="s">
         <v>436</v>
       </c>
@@ -5622,7 +5813,9 @@
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="21"/>
+      <c r="A139" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B139" t="s">
         <v>174</v>
       </c>
@@ -5640,7 +5833,9 @@
       </c>
     </row>
     <row r="140" spans="1:6" s="6" customFormat="1">
-      <c r="A140" s="21"/>
+      <c r="A140" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B140" s="6" t="s">
         <v>437</v>
       </c>
@@ -5658,7 +5853,9 @@
       </c>
     </row>
     <row r="141" spans="1:6" s="6" customFormat="1">
-      <c r="A141" s="21"/>
+      <c r="A141" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B141" s="6" t="s">
         <v>173</v>
       </c>
@@ -5676,7 +5873,9 @@
       </c>
     </row>
     <row r="142" spans="1:6" s="6" customFormat="1">
-      <c r="A142" s="21"/>
+      <c r="A142" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B142" s="6" t="s">
         <v>175</v>
       </c>
@@ -5694,7 +5893,9 @@
       </c>
     </row>
     <row r="143" spans="1:6" s="6" customFormat="1">
-      <c r="A143" s="21"/>
+      <c r="A143" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B143" s="6" t="s">
         <v>184</v>
       </c>
@@ -5712,7 +5913,9 @@
       </c>
     </row>
     <row r="144" spans="1:6" s="6" customFormat="1">
-      <c r="A144" s="21"/>
+      <c r="A144" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B144" s="6" t="s">
         <v>183</v>
       </c>
@@ -5730,7 +5933,9 @@
       </c>
     </row>
     <row r="145" spans="1:6" s="6" customFormat="1">
-      <c r="A145" s="21"/>
+      <c r="A145" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B145" s="6" t="s">
         <v>11</v>
       </c>
@@ -5748,7 +5953,9 @@
       </c>
     </row>
     <row r="146" spans="1:6" s="6" customFormat="1">
-      <c r="A146" s="21"/>
+      <c r="A146" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B146" s="6" t="s">
         <v>359</v>
       </c>
@@ -5766,7 +5973,9 @@
       </c>
     </row>
     <row r="147" spans="1:6" s="6" customFormat="1">
-      <c r="A147" s="21"/>
+      <c r="A147" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B147" s="6" t="s">
         <v>438</v>
       </c>
@@ -5784,7 +5993,9 @@
       </c>
     </row>
     <row r="148" spans="1:6" s="6" customFormat="1">
-      <c r="A148" s="21"/>
+      <c r="A148" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B148" s="6" t="s">
         <v>195</v>
       </c>
@@ -5802,7 +6013,9 @@
       </c>
     </row>
     <row r="149" spans="1:6" s="6" customFormat="1">
-      <c r="A149" s="21"/>
+      <c r="A149" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B149" s="6" t="s">
         <v>439</v>
       </c>
@@ -5820,7 +6033,9 @@
       </c>
     </row>
     <row r="150" spans="1:6" s="6" customFormat="1">
-      <c r="A150" s="21"/>
+      <c r="A150" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B150" s="6" t="s">
         <v>188</v>
       </c>
@@ -5838,7 +6053,9 @@
       </c>
     </row>
     <row r="151" spans="1:6" s="6" customFormat="1">
-      <c r="A151" s="21"/>
+      <c r="A151" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B151" s="6" t="s">
         <v>440</v>
       </c>
@@ -5856,7 +6073,9 @@
       </c>
     </row>
     <row r="152" spans="1:6" s="6" customFormat="1">
-      <c r="A152" s="21"/>
+      <c r="A152" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B152" t="s">
         <v>180</v>
       </c>
@@ -5874,7 +6093,9 @@
       </c>
     </row>
     <row r="153" spans="1:6" s="6" customFormat="1">
-      <c r="A153" s="21"/>
+      <c r="A153" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B153" t="s">
         <v>181</v>
       </c>
@@ -5892,7 +6113,9 @@
       </c>
     </row>
     <row r="154" spans="1:6" s="6" customFormat="1">
-      <c r="A154" s="21"/>
+      <c r="A154" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B154" s="6" t="s">
         <v>178</v>
       </c>
@@ -5910,7 +6133,9 @@
       </c>
     </row>
     <row r="155" spans="1:6" s="6" customFormat="1">
-      <c r="A155" s="21"/>
+      <c r="A155" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B155" t="s">
         <v>182</v>
       </c>
@@ -5928,7 +6153,9 @@
       </c>
     </row>
     <row r="156" spans="1:6" s="6" customFormat="1">
-      <c r="A156" s="21"/>
+      <c r="A156" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B156" s="6" t="s">
         <v>441</v>
       </c>
@@ -5946,7 +6173,9 @@
       </c>
     </row>
     <row r="157" spans="1:6" s="6" customFormat="1">
-      <c r="A157" s="21"/>
+      <c r="A157" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B157" s="6" t="s">
         <v>179</v>
       </c>
@@ -5964,7 +6193,9 @@
       </c>
     </row>
     <row r="158" spans="1:6" s="6" customFormat="1">
-      <c r="A158" s="21"/>
+      <c r="A158" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B158" s="6" t="s">
         <v>442</v>
       </c>
@@ -5982,7 +6213,9 @@
       </c>
     </row>
     <row r="159" spans="1:6" s="6" customFormat="1">
-      <c r="A159" s="21"/>
+      <c r="A159" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B159" s="6" t="s">
         <v>443</v>
       </c>
@@ -6000,7 +6233,9 @@
       </c>
     </row>
     <row r="160" spans="1:6" s="6" customFormat="1">
-      <c r="A160" s="21"/>
+      <c r="A160" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B160" s="6" t="s">
         <v>444</v>
       </c>
@@ -6018,7 +6253,9 @@
       </c>
     </row>
     <row r="161" spans="1:6" s="6" customFormat="1">
-      <c r="A161" s="21"/>
+      <c r="A161" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B161" s="6" t="s">
         <v>445</v>
       </c>
@@ -6036,7 +6273,9 @@
       </c>
     </row>
     <row r="162" spans="1:6" s="6" customFormat="1">
-      <c r="A162" s="21"/>
+      <c r="A162" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B162" s="6" t="s">
         <v>446</v>
       </c>
@@ -6054,7 +6293,9 @@
       </c>
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1">
-      <c r="A163" s="21"/>
+      <c r="A163" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B163" s="6" t="s">
         <v>185</v>
       </c>
@@ -6072,7 +6313,9 @@
       </c>
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1">
-      <c r="A164" s="21"/>
+      <c r="A164" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B164" s="6" t="s">
         <v>448</v>
       </c>
@@ -6090,7 +6333,9 @@
       </c>
     </row>
     <row r="165" spans="1:6" s="6" customFormat="1">
-      <c r="A165" s="21"/>
+      <c r="A165" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B165" s="6" t="s">
         <v>449</v>
       </c>
@@ -6108,7 +6353,9 @@
       </c>
     </row>
     <row r="166" spans="1:6" s="6" customFormat="1">
-      <c r="A166" s="21"/>
+      <c r="A166" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B166" s="6" t="s">
         <v>450</v>
       </c>
@@ -6126,7 +6373,9 @@
       </c>
     </row>
     <row r="167" spans="1:6" s="6" customFormat="1">
-      <c r="A167" s="21"/>
+      <c r="A167" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B167" s="6" t="s">
         <v>451</v>
       </c>
@@ -6144,7 +6393,9 @@
       </c>
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1">
-      <c r="A168" s="21"/>
+      <c r="A168" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B168" s="6" t="s">
         <v>452</v>
       </c>
@@ -6162,7 +6413,9 @@
       </c>
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1">
-      <c r="A169" s="21"/>
+      <c r="A169" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B169" s="6" t="s">
         <v>453</v>
       </c>
@@ -6188,7 +6441,7 @@
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="21" t="s">
+      <c r="A172" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B172" t="s">
@@ -6208,7 +6461,9 @@
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="21"/>
+      <c r="A173" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B173" t="s">
         <v>186</v>
       </c>
@@ -6226,7 +6481,9 @@
       </c>
     </row>
     <row r="174" spans="1:6" s="6" customFormat="1">
-      <c r="A174" s="21"/>
+      <c r="A174" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B174" s="6" t="s">
         <v>189</v>
       </c>
@@ -6244,7 +6501,9 @@
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="21"/>
+      <c r="A175" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B175" t="s">
         <v>187</v>
       </c>
@@ -6262,7 +6521,9 @@
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="21"/>
+      <c r="A176" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B176" t="s">
         <v>188</v>
       </c>
@@ -6280,7 +6541,9 @@
       </c>
     </row>
     <row r="177" spans="1:6" s="6" customFormat="1">
-      <c r="A177" s="21"/>
+      <c r="A177" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B177" s="6" t="s">
         <v>190</v>
       </c>
@@ -6298,7 +6561,9 @@
       </c>
     </row>
     <row r="178" spans="1:6" s="6" customFormat="1">
-      <c r="A178" s="21"/>
+      <c r="A178" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B178" s="6" t="s">
         <v>357</v>
       </c>
@@ -6316,7 +6581,9 @@
       </c>
     </row>
     <row r="179" spans="1:6" s="6" customFormat="1">
-      <c r="A179" s="21"/>
+      <c r="A179" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B179" s="6" t="s">
         <v>454</v>
       </c>
@@ -6334,7 +6601,9 @@
       </c>
     </row>
     <row r="180" spans="1:6" s="6" customFormat="1">
-      <c r="A180" s="21"/>
+      <c r="A180" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B180" s="6" t="s">
         <v>11</v>
       </c>
@@ -6352,7 +6621,9 @@
       </c>
     </row>
     <row r="181" spans="1:6" s="6" customFormat="1">
-      <c r="A181" s="21"/>
+      <c r="A181" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B181" s="6" t="s">
         <v>193</v>
       </c>
@@ -6370,7 +6641,9 @@
       </c>
     </row>
     <row r="182" spans="1:6" s="6" customFormat="1">
-      <c r="A182" s="21"/>
+      <c r="A182" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B182" s="6" t="s">
         <v>191</v>
       </c>
@@ -6388,7 +6661,9 @@
       </c>
     </row>
     <row r="183" spans="1:6" s="6" customFormat="1">
-      <c r="A183" s="21"/>
+      <c r="A183" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B183" s="6" t="s">
         <v>455</v>
       </c>
@@ -6406,7 +6681,9 @@
       </c>
     </row>
     <row r="184" spans="1:6" s="6" customFormat="1">
-      <c r="A184" s="21"/>
+      <c r="A184" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B184" s="6" t="s">
         <v>456</v>
       </c>
@@ -6424,7 +6701,9 @@
       </c>
     </row>
     <row r="185" spans="1:6" s="6" customFormat="1">
-      <c r="A185" s="21"/>
+      <c r="A185" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B185" s="6" t="s">
         <v>457</v>
       </c>
@@ -6442,7 +6721,9 @@
       </c>
     </row>
     <row r="186" spans="1:6" s="6" customFormat="1">
-      <c r="A186" s="21"/>
+      <c r="A186" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B186" s="6" t="s">
         <v>194</v>
       </c>
@@ -6460,7 +6741,9 @@
       </c>
     </row>
     <row r="187" spans="1:6" s="6" customFormat="1">
-      <c r="A187" s="21"/>
+      <c r="A187" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B187" s="6" t="s">
         <v>192</v>
       </c>
@@ -6478,7 +6761,9 @@
       </c>
     </row>
     <row r="188" spans="1:6" s="6" customFormat="1">
-      <c r="A188" s="21"/>
+      <c r="A188" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B188" s="6" t="s">
         <v>359</v>
       </c>
@@ -6496,7 +6781,9 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="21"/>
+      <c r="A189" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B189" s="6" t="s">
         <v>380</v>
       </c>
@@ -6514,7 +6801,9 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="21"/>
+      <c r="A190" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B190" s="6" t="s">
         <v>356</v>
       </c>
@@ -6532,7 +6821,9 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="21"/>
+      <c r="A191" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B191" t="s">
         <v>459</v>
       </c>
@@ -6550,7 +6841,9 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="21"/>
+      <c r="A192" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B192" t="s">
         <v>460</v>
       </c>
@@ -6568,7 +6861,9 @@
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="21"/>
+      <c r="A193" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B193" t="s">
         <v>461</v>
       </c>
@@ -6586,7 +6881,9 @@
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="21"/>
+      <c r="A194" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B194" t="s">
         <v>462</v>
       </c>
@@ -6604,7 +6901,9 @@
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="21"/>
+      <c r="A195" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B195" s="6" t="s">
         <v>197</v>
       </c>
@@ -6622,7 +6921,9 @@
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="21"/>
+      <c r="A196" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B196" t="s">
         <v>195</v>
       </c>
@@ -6640,7 +6941,9 @@
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="21"/>
+      <c r="A197" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B197" t="s">
         <v>196</v>
       </c>
@@ -6658,7 +6961,9 @@
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="21"/>
+      <c r="A198" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B198" t="s">
         <v>463</v>
       </c>
@@ -6676,7 +6981,9 @@
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="21"/>
+      <c r="A199" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B199" t="s">
         <v>198</v>
       </c>
@@ -6694,7 +7001,9 @@
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="21"/>
+      <c r="A200" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B200" t="s">
         <v>199</v>
       </c>
@@ -6723,7 +7032,7 @@
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="21" t="s">
+      <c r="A203" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B203" t="s">
@@ -6743,7 +7052,9 @@
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="21"/>
+      <c r="A204" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B204" t="s">
         <v>201</v>
       </c>
@@ -6772,7 +7083,7 @@
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="21" t="s">
+      <c r="A207" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B207" t="s">
@@ -6792,7 +7103,9 @@
       </c>
     </row>
     <row r="208" spans="1:6" s="6" customFormat="1">
-      <c r="A208" s="21"/>
+      <c r="A208" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B208" s="6" t="s">
         <v>464</v>
       </c>
@@ -6810,7 +7123,9 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="21"/>
+      <c r="A209" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B209" t="s">
         <v>206</v>
       </c>
@@ -6828,7 +7143,9 @@
       </c>
     </row>
     <row r="210" spans="1:6" s="6" customFormat="1">
-      <c r="A210" s="21"/>
+      <c r="A210" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B210" s="6" t="s">
         <v>384</v>
       </c>
@@ -6846,7 +7163,9 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="21"/>
+      <c r="A211" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B211" t="s">
         <v>1</v>
       </c>
@@ -6864,7 +7183,9 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="21"/>
+      <c r="A212" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B212" t="s">
         <v>207</v>
       </c>
@@ -6882,7 +7203,9 @@
       </c>
     </row>
     <row r="213" spans="1:6" s="6" customFormat="1">
-      <c r="A213" s="21"/>
+      <c r="A213" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B213" s="6" t="s">
         <v>208</v>
       </c>
@@ -6900,7 +7223,9 @@
       </c>
     </row>
     <row r="214" spans="1:6" s="6" customFormat="1">
-      <c r="A214" s="21"/>
+      <c r="A214" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B214" s="6" t="s">
         <v>242</v>
       </c>
@@ -6918,7 +7243,9 @@
       </c>
     </row>
     <row r="215" spans="1:6" s="6" customFormat="1">
-      <c r="A215" s="21"/>
+      <c r="A215" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B215" s="6" t="s">
         <v>385</v>
       </c>
@@ -6936,7 +7263,9 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="21"/>
+      <c r="A216" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B216" t="s">
         <v>386</v>
       </c>
@@ -6962,7 +7291,7 @@
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="21" t="s">
+      <c r="A219" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B219" s="6" t="s">
@@ -6982,7 +7311,9 @@
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="21"/>
+      <c r="A220" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B220" s="6" t="s">
         <v>212</v>
       </c>
@@ -7000,7 +7331,9 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="21"/>
+      <c r="A221" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B221" s="6" t="s">
         <v>214</v>
       </c>
@@ -7018,7 +7351,9 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="21"/>
+      <c r="A222" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B222" s="6" t="s">
         <v>191</v>
       </c>
@@ -7036,7 +7371,9 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="21"/>
+      <c r="A223" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B223" s="6" t="s">
         <v>213</v>
       </c>
@@ -7054,7 +7391,9 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="21"/>
+      <c r="A224" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B224" s="6" t="s">
         <v>355</v>
       </c>
@@ -7072,7 +7411,9 @@
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="21"/>
+      <c r="A225" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B225" s="6" t="s">
         <v>215</v>
       </c>
@@ -7090,7 +7431,9 @@
       </c>
     </row>
     <row r="226" spans="1:6" s="6" customFormat="1">
-      <c r="A226" s="21"/>
+      <c r="A226" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B226" s="6" t="s">
         <v>465</v>
       </c>
@@ -7108,7 +7451,9 @@
       </c>
     </row>
     <row r="227" spans="1:6" s="6" customFormat="1">
-      <c r="A227" s="21"/>
+      <c r="A227" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B227" s="6" t="s">
         <v>218</v>
       </c>
@@ -7126,7 +7471,9 @@
       </c>
     </row>
     <row r="228" spans="1:6" s="6" customFormat="1">
-      <c r="A228" s="21"/>
+      <c r="A228" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B228" s="6" t="s">
         <v>230</v>
       </c>
@@ -7144,7 +7491,9 @@
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="21"/>
+      <c r="A229" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B229" s="6" t="s">
         <v>388</v>
       </c>
@@ -7162,7 +7511,9 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="21"/>
+      <c r="A230" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B230" s="6" t="s">
         <v>389</v>
       </c>
@@ -7180,7 +7531,9 @@
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="21"/>
+      <c r="A231" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B231" s="6" t="s">
         <v>221</v>
       </c>
@@ -7198,7 +7551,9 @@
       </c>
     </row>
     <row r="232" spans="1:6" s="6" customFormat="1">
-      <c r="A232" s="21"/>
+      <c r="A232" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B232" s="6" t="s">
         <v>217</v>
       </c>
@@ -7216,7 +7571,9 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="21"/>
+      <c r="A233" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B233" s="6" t="s">
         <v>219</v>
       </c>
@@ -7234,7 +7591,9 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="21"/>
+      <c r="A234" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B234" s="6" t="s">
         <v>220</v>
       </c>
@@ -7252,7 +7611,9 @@
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="21"/>
+      <c r="A235" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B235" s="6" t="s">
         <v>222</v>
       </c>
@@ -7270,7 +7631,9 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="21"/>
+      <c r="A236" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B236" s="6" t="s">
         <v>229</v>
       </c>
@@ -7288,7 +7651,9 @@
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="21"/>
+      <c r="A237" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B237" s="6" t="s">
         <v>231</v>
       </c>
@@ -7306,7 +7671,9 @@
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="21"/>
+      <c r="A238" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B238" s="6" t="s">
         <v>216</v>
       </c>
@@ -7324,7 +7691,9 @@
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="21"/>
+      <c r="A239" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B239" s="6" t="s">
         <v>224</v>
       </c>
@@ -7342,7 +7711,9 @@
       </c>
     </row>
     <row r="240" spans="1:6" s="6" customFormat="1">
-      <c r="A240" s="21"/>
+      <c r="A240" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B240" s="6" t="s">
         <v>226</v>
       </c>
@@ -7360,7 +7731,9 @@
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="21"/>
+      <c r="A241" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B241" s="6" t="s">
         <v>466</v>
       </c>
@@ -7378,7 +7751,9 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="21"/>
+      <c r="A242" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B242" s="6" t="s">
         <v>223</v>
       </c>
@@ -7396,7 +7771,9 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="21"/>
+      <c r="A243" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B243" s="6" t="s">
         <v>225</v>
       </c>
@@ -7414,7 +7791,9 @@
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="21"/>
+      <c r="A244" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B244" s="6" t="s">
         <v>467</v>
       </c>
@@ -7432,7 +7811,9 @@
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="21"/>
+      <c r="A245" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B245" s="6" t="s">
         <v>232</v>
       </c>
@@ -7450,7 +7831,9 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="21"/>
+      <c r="A246" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B246" s="6" t="s">
         <v>227</v>
       </c>
@@ -7468,7 +7851,9 @@
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="21"/>
+      <c r="A247" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B247" s="6" t="s">
         <v>228</v>
       </c>
@@ -7486,7 +7871,9 @@
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="21"/>
+      <c r="A248" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B248" s="6" t="s">
         <v>233</v>
       </c>
@@ -7512,7 +7899,7 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="21" t="s">
+      <c r="A251" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B251" t="s">
@@ -7532,7 +7919,9 @@
       </c>
     </row>
     <row r="252" spans="1:6" s="6" customFormat="1">
-      <c r="A252" s="21"/>
+      <c r="A252" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B252" s="6" t="s">
         <v>321</v>
       </c>
@@ -7550,7 +7939,9 @@
       </c>
     </row>
     <row r="253" spans="1:6" s="6" customFormat="1">
-      <c r="A253" s="21"/>
+      <c r="A253" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B253" s="6" t="s">
         <v>206</v>
       </c>
@@ -7568,7 +7959,9 @@
       </c>
     </row>
     <row r="254" spans="1:6" s="6" customFormat="1">
-      <c r="A254" s="21"/>
+      <c r="A254" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B254" s="6" t="s">
         <v>385</v>
       </c>
@@ -7586,7 +7979,9 @@
       </c>
     </row>
     <row r="255" spans="1:6" s="6" customFormat="1">
-      <c r="A255" s="21"/>
+      <c r="A255" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B255" s="6" t="s">
         <v>322</v>
       </c>
@@ -7604,7 +7999,9 @@
       </c>
     </row>
     <row r="256" spans="1:6" s="6" customFormat="1">
-      <c r="A256" s="21"/>
+      <c r="A256" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B256" s="6" t="s">
         <v>324</v>
       </c>
@@ -7622,7 +8019,9 @@
       </c>
     </row>
     <row r="257" spans="1:6">
-      <c r="A257" s="21"/>
+      <c r="A257" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B257" s="6" t="s">
         <v>323</v>
       </c>
@@ -7652,7 +8051,7 @@
       </c>
     </row>
     <row r="260" spans="1:6">
-      <c r="A260" s="21" t="s">
+      <c r="A260" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B260" t="s">
@@ -7672,7 +8071,9 @@
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="21"/>
+      <c r="A261" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B261" s="6" t="s">
         <v>355</v>
       </c>
@@ -7690,7 +8091,9 @@
       </c>
     </row>
     <row r="262" spans="1:6">
-      <c r="A262" s="21"/>
+      <c r="A262" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B262" t="s">
         <v>234</v>
       </c>
@@ -7708,7 +8111,9 @@
       </c>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="21"/>
+      <c r="A263" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B263" t="s">
         <v>192</v>
       </c>
@@ -7726,7 +8131,9 @@
       </c>
     </row>
     <row r="264" spans="1:6">
-      <c r="A264" s="21"/>
+      <c r="A264" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B264" t="s">
         <v>235</v>
       </c>
@@ -7744,7 +8151,9 @@
       </c>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="21"/>
+      <c r="A265" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B265" t="s">
         <v>236</v>
       </c>
@@ -7762,7 +8171,9 @@
       </c>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="21"/>
+      <c r="A266" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B266" t="s">
         <v>187</v>
       </c>
@@ -7780,7 +8191,9 @@
       </c>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="21"/>
+      <c r="A267" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B267" t="s">
         <v>237</v>
       </c>
@@ -7798,7 +8211,9 @@
       </c>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="21"/>
+      <c r="A268" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B268" t="s">
         <v>238</v>
       </c>
@@ -7816,7 +8231,9 @@
       </c>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="21"/>
+      <c r="A269" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B269" t="s">
         <v>239</v>
       </c>
@@ -7845,7 +8262,7 @@
       </c>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" s="21" t="s">
+      <c r="A272" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B272" t="s">
@@ -7865,7 +8282,9 @@
       </c>
     </row>
     <row r="273" spans="1:6" s="6" customFormat="1">
-      <c r="A273" s="21"/>
+      <c r="A273" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B273" s="6" t="s">
         <v>398</v>
       </c>
@@ -7883,7 +8302,9 @@
       </c>
     </row>
     <row r="274" spans="1:6" s="6" customFormat="1">
-      <c r="A274" s="21"/>
+      <c r="A274" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B274" s="6" t="s">
         <v>242</v>
       </c>
@@ -7901,7 +8322,9 @@
       </c>
     </row>
     <row r="275" spans="1:6">
-      <c r="A275" s="21"/>
+      <c r="A275" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B275" t="s">
         <v>241</v>
       </c>
@@ -7919,7 +8342,9 @@
       </c>
     </row>
     <row r="276" spans="1:6">
-      <c r="A276" s="21"/>
+      <c r="A276" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B276" s="6" t="s">
         <v>243</v>
       </c>
@@ -7937,7 +8362,9 @@
       </c>
     </row>
     <row r="277" spans="1:6">
-      <c r="A277" s="21"/>
+      <c r="A277" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B277" t="s">
         <v>400</v>
       </c>
@@ -7966,7 +8393,7 @@
       </c>
     </row>
     <row r="280" spans="1:6">
-      <c r="A280" s="21" t="s">
+      <c r="A280" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B280" t="s">
@@ -7986,7 +8413,9 @@
       </c>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="21"/>
+      <c r="A281" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B281" t="s">
         <v>253</v>
       </c>
@@ -8004,7 +8433,9 @@
       </c>
     </row>
     <row r="282" spans="1:6">
-      <c r="A282" s="21"/>
+      <c r="A282" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B282" t="s">
         <v>254</v>
       </c>
@@ -8022,7 +8453,9 @@
       </c>
     </row>
     <row r="283" spans="1:6">
-      <c r="A283" s="21"/>
+      <c r="A283" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B283" t="s">
         <v>255</v>
       </c>
@@ -8040,7 +8473,9 @@
       </c>
     </row>
     <row r="284" spans="1:6" s="6" customFormat="1">
-      <c r="A284" s="21"/>
+      <c r="A284" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B284" s="6" t="s">
         <v>259</v>
       </c>
@@ -8058,7 +8493,9 @@
       </c>
     </row>
     <row r="285" spans="1:6" s="6" customFormat="1">
-      <c r="A285" s="21"/>
+      <c r="A285" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B285" s="6" t="s">
         <v>207</v>
       </c>
@@ -8076,7 +8513,9 @@
       </c>
     </row>
     <row r="286" spans="1:6" s="6" customFormat="1">
-      <c r="A286" s="21"/>
+      <c r="A286" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B286" s="6" t="s">
         <v>256</v>
       </c>
@@ -8094,7 +8533,9 @@
       </c>
     </row>
     <row r="287" spans="1:6" s="6" customFormat="1">
-      <c r="A287" s="21"/>
+      <c r="A287" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B287" s="6" t="s">
         <v>258</v>
       </c>
@@ -8112,7 +8553,9 @@
       </c>
     </row>
     <row r="288" spans="1:6" s="6" customFormat="1">
-      <c r="A288" s="21"/>
+      <c r="A288" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B288" s="6" t="s">
         <v>257</v>
       </c>
@@ -8130,7 +8573,9 @@
       </c>
     </row>
     <row r="289" spans="1:6" s="6" customFormat="1">
-      <c r="A289" s="21"/>
+      <c r="A289" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B289" s="6" t="s">
         <v>404</v>
       </c>
@@ -8148,7 +8593,9 @@
       </c>
     </row>
     <row r="290" spans="1:6" s="6" customFormat="1">
-      <c r="A290" s="21"/>
+      <c r="A290" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B290" s="6" t="s">
         <v>260</v>
       </c>
@@ -8166,7 +8613,9 @@
       </c>
     </row>
     <row r="291" spans="1:6" s="6" customFormat="1">
-      <c r="A291" s="21"/>
+      <c r="A291" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B291" s="6" t="s">
         <v>405</v>
       </c>
@@ -8184,7 +8633,9 @@
       </c>
     </row>
     <row r="292" spans="1:6" s="6" customFormat="1">
-      <c r="A292" s="21"/>
+      <c r="A292" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B292" s="6" t="s">
         <v>266</v>
       </c>
@@ -8202,7 +8653,9 @@
       </c>
     </row>
     <row r="293" spans="1:6" s="6" customFormat="1">
-      <c r="A293" s="21"/>
+      <c r="A293" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B293" s="6" t="s">
         <v>261</v>
       </c>
@@ -8220,7 +8673,9 @@
       </c>
     </row>
     <row r="294" spans="1:6">
-      <c r="A294" s="21"/>
+      <c r="A294" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B294" s="6" t="s">
         <v>265</v>
       </c>
@@ -8238,7 +8693,9 @@
       </c>
     </row>
     <row r="295" spans="1:6">
-      <c r="A295" s="21"/>
+      <c r="A295" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B295" s="6" t="s">
         <v>267</v>
       </c>
@@ -8256,7 +8713,9 @@
       </c>
     </row>
     <row r="296" spans="1:6">
-      <c r="A296" s="21"/>
+      <c r="A296" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B296" t="s">
         <v>263</v>
       </c>
@@ -8274,7 +8733,9 @@
       </c>
     </row>
     <row r="297" spans="1:6">
-      <c r="A297" s="21"/>
+      <c r="A297" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B297" s="6" t="s">
         <v>264</v>
       </c>
@@ -8292,7 +8753,9 @@
       </c>
     </row>
     <row r="298" spans="1:6">
-      <c r="A298" s="21"/>
+      <c r="A298" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B298" t="s">
         <v>406</v>
       </c>
@@ -8310,7 +8773,9 @@
       </c>
     </row>
     <row r="299" spans="1:6">
-      <c r="A299" s="21"/>
+      <c r="A299" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B299" t="s">
         <v>268</v>
       </c>
@@ -8328,7 +8793,9 @@
       </c>
     </row>
     <row r="300" spans="1:6">
-      <c r="A300" s="21"/>
+      <c r="A300" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B300" t="s">
         <v>205</v>
       </c>
@@ -8346,7 +8813,9 @@
       </c>
     </row>
     <row r="301" spans="1:6">
-      <c r="A301" s="21"/>
+      <c r="A301" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B301" s="6" t="s">
         <v>262</v>
       </c>
@@ -8364,7 +8833,9 @@
       </c>
     </row>
     <row r="302" spans="1:6">
-      <c r="A302" s="21"/>
+      <c r="A302" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B302" t="s">
         <v>407</v>
       </c>
@@ -8382,7 +8853,9 @@
       </c>
     </row>
     <row r="303" spans="1:6" s="6" customFormat="1">
-      <c r="A303" s="21"/>
+      <c r="A303" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B303" s="6" t="s">
         <v>252</v>
       </c>
@@ -8400,7 +8873,9 @@
       </c>
     </row>
     <row r="304" spans="1:6" s="6" customFormat="1">
-      <c r="A304" s="21"/>
+      <c r="A304" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B304" s="6" t="s">
         <v>270</v>
       </c>
@@ -8418,7 +8893,9 @@
       </c>
     </row>
     <row r="305" spans="1:6" s="6" customFormat="1">
-      <c r="A305" s="21"/>
+      <c r="A305" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B305" s="6" t="s">
         <v>409</v>
       </c>
@@ -8436,7 +8913,9 @@
       </c>
     </row>
     <row r="306" spans="1:6" s="6" customFormat="1">
-      <c r="A306" s="21"/>
+      <c r="A306" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B306" s="6" t="s">
         <v>410</v>
       </c>
@@ -8454,7 +8933,9 @@
       </c>
     </row>
     <row r="307" spans="1:6" s="6" customFormat="1">
-      <c r="A307" s="21"/>
+      <c r="A307" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B307" s="6" t="s">
         <v>253</v>
       </c>
@@ -8472,7 +8953,9 @@
       </c>
     </row>
     <row r="308" spans="1:6" s="6" customFormat="1">
-      <c r="A308" s="21"/>
+      <c r="A308" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B308" s="6" t="s">
         <v>333</v>
       </c>
@@ -8490,7 +8973,9 @@
       </c>
     </row>
     <row r="309" spans="1:6" s="6" customFormat="1">
-      <c r="A309" s="21"/>
+      <c r="A309" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B309" s="6" t="s">
         <v>208</v>
       </c>
@@ -8508,7 +8993,9 @@
       </c>
     </row>
     <row r="310" spans="1:6">
-      <c r="A310" s="21"/>
+      <c r="A310" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B310" t="s">
         <v>246</v>
       </c>
@@ -8534,7 +9021,7 @@
       </c>
     </row>
     <row r="313" spans="1:6" s="6" customFormat="1">
-      <c r="A313" s="21" t="s">
+      <c r="A313" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B313" s="6" t="s">
@@ -8554,7 +9041,9 @@
       </c>
     </row>
     <row r="314" spans="1:6" s="6" customFormat="1">
-      <c r="A314" s="21"/>
+      <c r="A314" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B314" s="6" t="s">
         <v>422</v>
       </c>
@@ -8573,7 +9062,9 @@
       </c>
     </row>
     <row r="315" spans="1:6">
-      <c r="A315" s="21"/>
+      <c r="A315" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B315" t="s">
         <v>276</v>
       </c>
@@ -8591,7 +9082,9 @@
       </c>
     </row>
     <row r="316" spans="1:6" s="6" customFormat="1">
-      <c r="A316" s="21"/>
+      <c r="A316" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B316" s="6" t="s">
         <v>274</v>
       </c>
@@ -8610,7 +9103,9 @@
       </c>
     </row>
     <row r="317" spans="1:6">
-      <c r="A317" s="21"/>
+      <c r="A317" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B317" t="s">
         <v>271</v>
       </c>
@@ -8628,7 +9123,9 @@
       </c>
     </row>
     <row r="318" spans="1:6" s="6" customFormat="1">
-      <c r="A318" s="21"/>
+      <c r="A318" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B318" s="6" t="s">
         <v>274</v>
       </c>
@@ -8646,7 +9143,9 @@
       </c>
     </row>
     <row r="319" spans="1:6">
-      <c r="A319" s="21"/>
+      <c r="A319" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B319" t="s">
         <v>272</v>
       </c>
@@ -8664,7 +9163,9 @@
       </c>
     </row>
     <row r="320" spans="1:6">
-      <c r="A320" s="21"/>
+      <c r="A320" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B320" t="s">
         <v>273</v>
       </c>
@@ -8682,7 +9183,9 @@
       </c>
     </row>
     <row r="321" spans="1:6" s="6" customFormat="1">
-      <c r="A321" s="21"/>
+      <c r="A321" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B321" s="6" t="s">
         <v>222</v>
       </c>
@@ -8700,7 +9203,9 @@
       </c>
     </row>
     <row r="322" spans="1:6" s="6" customFormat="1">
-      <c r="A322" s="21"/>
+      <c r="A322" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B322" s="6" t="s">
         <v>423</v>
       </c>
@@ -8718,7 +9223,9 @@
       </c>
     </row>
     <row r="323" spans="1:6" s="6" customFormat="1">
-      <c r="A323" s="21"/>
+      <c r="A323" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B323" s="6" t="s">
         <v>275</v>
       </c>
@@ -8736,7 +9243,9 @@
       </c>
     </row>
     <row r="324" spans="1:6" s="6" customFormat="1">
-      <c r="A324" s="21"/>
+      <c r="A324" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B324" s="6" t="s">
         <v>218</v>
       </c>
@@ -8754,7 +9263,9 @@
       </c>
     </row>
     <row r="325" spans="1:6" s="6" customFormat="1">
-      <c r="A325" s="21"/>
+      <c r="A325" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B325" s="6" t="s">
         <v>424</v>
       </c>
@@ -8772,7 +9283,9 @@
       </c>
     </row>
     <row r="326" spans="1:6" s="6" customFormat="1">
-      <c r="A326" s="21"/>
+      <c r="A326" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B326" s="6" t="s">
         <v>178</v>
       </c>
@@ -8790,7 +9303,9 @@
       </c>
     </row>
     <row r="327" spans="1:6" s="6" customFormat="1">
-      <c r="A327" s="21"/>
+      <c r="A327" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B327" s="6" t="s">
         <v>425</v>
       </c>
@@ -8816,7 +9331,7 @@
       </c>
     </row>
     <row r="330" spans="1:6">
-      <c r="A330" s="21" t="s">
+      <c r="A330" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B330" t="s">
@@ -8837,7 +9352,9 @@
       </c>
     </row>
     <row r="331" spans="1:6">
-      <c r="A331" s="21"/>
+      <c r="A331" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B331" t="s">
         <v>278</v>
       </c>
@@ -8855,7 +9372,9 @@
       </c>
     </row>
     <row r="332" spans="1:6" s="6" customFormat="1">
-      <c r="A332" s="21"/>
+      <c r="A332" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B332" s="6" t="s">
         <v>230</v>
       </c>
@@ -8873,7 +9392,9 @@
       </c>
     </row>
     <row r="333" spans="1:6" s="6" customFormat="1">
-      <c r="A333" s="21"/>
+      <c r="A333" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B333" s="6" t="s">
         <v>277</v>
       </c>
@@ -8891,7 +9412,9 @@
       </c>
     </row>
     <row r="334" spans="1:6" s="6" customFormat="1">
-      <c r="A334" s="21"/>
+      <c r="A334" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B334" s="6" t="s">
         <v>419</v>
       </c>
@@ -8909,7 +9432,9 @@
       </c>
     </row>
     <row r="335" spans="1:6" s="6" customFormat="1">
-      <c r="A335" s="21"/>
+      <c r="A335" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B335" s="6" t="s">
         <v>214</v>
       </c>
@@ -8927,7 +9452,9 @@
       </c>
     </row>
     <row r="336" spans="1:6" s="6" customFormat="1">
-      <c r="A336" s="21"/>
+      <c r="A336" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B336" s="6" t="s">
         <v>280</v>
       </c>
@@ -8945,7 +9472,9 @@
       </c>
     </row>
     <row r="337" spans="1:6" s="6" customFormat="1">
-      <c r="A337" s="21"/>
+      <c r="A337" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B337" s="6" t="s">
         <v>302</v>
       </c>
@@ -8963,7 +9492,9 @@
       </c>
     </row>
     <row r="338" spans="1:6" s="6" customFormat="1">
-      <c r="A338" s="21"/>
+      <c r="A338" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B338" s="6" t="s">
         <v>411</v>
       </c>
@@ -8981,7 +9512,9 @@
       </c>
     </row>
     <row r="339" spans="1:6" s="6" customFormat="1">
-      <c r="A339" s="21"/>
+      <c r="A339" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B339" s="6" t="s">
         <v>413</v>
       </c>
@@ -8999,7 +9532,9 @@
       </c>
     </row>
     <row r="340" spans="1:6" s="6" customFormat="1">
-      <c r="A340" s="21"/>
+      <c r="A340" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B340" s="6" t="s">
         <v>414</v>
       </c>
@@ -9017,7 +9552,9 @@
       </c>
     </row>
     <row r="341" spans="1:6">
-      <c r="A341" s="21"/>
+      <c r="A341" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B341" t="s">
         <v>281</v>
       </c>
@@ -9035,7 +9572,9 @@
       </c>
     </row>
     <row r="342" spans="1:6">
-      <c r="A342" s="21"/>
+      <c r="A342" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B342" t="s">
         <v>279</v>
       </c>
@@ -9053,7 +9592,9 @@
       </c>
     </row>
     <row r="343" spans="1:6" s="6" customFormat="1">
-      <c r="A343" s="21"/>
+      <c r="A343" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B343" t="s">
         <v>284</v>
       </c>
@@ -9071,7 +9612,9 @@
       </c>
     </row>
     <row r="344" spans="1:6">
-      <c r="A344" s="21"/>
+      <c r="A344" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B344" t="s">
         <v>282</v>
       </c>
@@ -9089,7 +9632,9 @@
       </c>
     </row>
     <row r="345" spans="1:6">
-      <c r="A345" s="21"/>
+      <c r="A345" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B345" t="s">
         <v>283</v>
       </c>
@@ -9107,7 +9652,9 @@
       </c>
     </row>
     <row r="346" spans="1:6">
-      <c r="A346" s="21"/>
+      <c r="A346" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B346" s="6" t="s">
         <v>289</v>
       </c>
@@ -9125,7 +9672,9 @@
       </c>
     </row>
     <row r="347" spans="1:6">
-      <c r="A347" s="21"/>
+      <c r="A347" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B347" s="6" t="s">
         <v>287</v>
       </c>
@@ -9143,7 +9692,9 @@
       </c>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="21"/>
+      <c r="A348" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B348" t="s">
         <v>286</v>
       </c>
@@ -9161,7 +9712,9 @@
       </c>
     </row>
     <row r="349" spans="1:6">
-      <c r="A349" s="21"/>
+      <c r="A349" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B349" t="s">
         <v>285</v>
       </c>
@@ -9179,7 +9732,9 @@
       </c>
     </row>
     <row r="350" spans="1:6">
-      <c r="A350" s="21"/>
+      <c r="A350" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B350" t="s">
         <v>290</v>
       </c>
@@ -9197,7 +9752,9 @@
       </c>
     </row>
     <row r="351" spans="1:6">
-      <c r="A351" s="21"/>
+      <c r="A351" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B351" s="6" t="s">
         <v>288</v>
       </c>
@@ -9215,7 +9772,9 @@
       </c>
     </row>
     <row r="352" spans="1:6">
-      <c r="A352" s="21"/>
+      <c r="A352" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B352" t="s">
         <v>417</v>
       </c>
@@ -9233,7 +9792,9 @@
       </c>
     </row>
     <row r="353" spans="1:6">
-      <c r="A353" s="21"/>
+      <c r="A353" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B353" t="s">
         <v>418</v>
       </c>
@@ -9259,7 +9820,7 @@
       </c>
     </row>
     <row r="356" spans="1:6">
-      <c r="A356" s="21" t="s">
+      <c r="A356" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B356" t="s">
@@ -9279,7 +9840,9 @@
       </c>
     </row>
     <row r="357" spans="1:6">
-      <c r="A357" s="21"/>
+      <c r="A357" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B357" t="s">
         <v>12</v>
       </c>
@@ -9297,7 +9860,9 @@
       </c>
     </row>
     <row r="358" spans="1:6">
-      <c r="A358" s="21"/>
+      <c r="A358" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B358" t="s">
         <v>294</v>
       </c>
@@ -9315,7 +9880,9 @@
       </c>
     </row>
     <row r="359" spans="1:6">
-      <c r="A359" s="21"/>
+      <c r="A359" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B359" t="s">
         <v>295</v>
       </c>
@@ -9333,7 +9900,9 @@
       </c>
     </row>
     <row r="360" spans="1:6">
-      <c r="A360" s="21"/>
+      <c r="A360" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B360" t="s">
         <v>296</v>
       </c>
@@ -9351,7 +9920,9 @@
       </c>
     </row>
     <row r="361" spans="1:6">
-      <c r="A361" s="21"/>
+      <c r="A361" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B361" t="s">
         <v>297</v>
       </c>
@@ -9369,7 +9940,9 @@
       </c>
     </row>
     <row r="362" spans="1:6">
-      <c r="A362" s="21"/>
+      <c r="A362" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B362" t="s">
         <v>298</v>
       </c>
@@ -9387,7 +9960,9 @@
       </c>
     </row>
     <row r="363" spans="1:6">
-      <c r="A363" s="21"/>
+      <c r="A363" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B363" t="s">
         <v>299</v>
       </c>
@@ -9405,7 +9980,9 @@
       </c>
     </row>
     <row r="364" spans="1:6">
-      <c r="A364" s="21"/>
+      <c r="A364" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B364" t="s">
         <v>220</v>
       </c>
@@ -9423,7 +10000,9 @@
       </c>
     </row>
     <row r="365" spans="1:6">
-      <c r="A365" s="21"/>
+      <c r="A365" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B365" t="s">
         <v>300</v>
       </c>
@@ -9441,7 +10020,9 @@
       </c>
     </row>
     <row r="366" spans="1:6">
-      <c r="A366" s="21"/>
+      <c r="A366" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B366" t="s">
         <v>301</v>
       </c>
@@ -9459,7 +10040,9 @@
       </c>
     </row>
     <row r="367" spans="1:6">
-      <c r="A367" s="21"/>
+      <c r="A367" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B367" t="s">
         <v>164</v>
       </c>
@@ -9477,7 +10060,9 @@
       </c>
     </row>
     <row r="368" spans="1:6">
-      <c r="A368" s="21"/>
+      <c r="A368" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B368" t="s">
         <v>302</v>
       </c>
@@ -9495,7 +10080,9 @@
       </c>
     </row>
     <row r="369" spans="1:6">
-      <c r="A369" s="21"/>
+      <c r="A369" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B369" t="s">
         <v>281</v>
       </c>
@@ -9513,7 +10100,9 @@
       </c>
     </row>
     <row r="370" spans="1:6">
-      <c r="A370" s="21"/>
+      <c r="A370" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B370" t="s">
         <v>303</v>
       </c>
@@ -9542,7 +10131,7 @@
       </c>
     </row>
     <row r="373" spans="1:6">
-      <c r="A373" s="21" t="s">
+      <c r="A373" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B373" t="s">
@@ -9563,7 +10152,9 @@
       </c>
     </row>
     <row r="374" spans="1:6">
-      <c r="A374" s="21"/>
+      <c r="A374" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B374" t="s">
         <v>305</v>
       </c>
@@ -9582,7 +10173,9 @@
       </c>
     </row>
     <row r="375" spans="1:6">
-      <c r="A375" s="21"/>
+      <c r="A375" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B375" t="s">
         <v>306</v>
       </c>
@@ -9600,7 +10193,9 @@
       </c>
     </row>
     <row r="376" spans="1:6" s="6" customFormat="1">
-      <c r="A376" s="21"/>
+      <c r="A376" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B376" s="6" t="s">
         <v>427</v>
       </c>
@@ -9619,7 +10214,9 @@
       </c>
     </row>
     <row r="377" spans="1:6" s="6" customFormat="1">
-      <c r="A377" s="21"/>
+      <c r="A377" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B377" s="6" t="s">
         <v>308</v>
       </c>
@@ -9637,7 +10234,9 @@
       </c>
     </row>
     <row r="378" spans="1:6" s="6" customFormat="1">
-      <c r="A378" s="21"/>
+      <c r="A378" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B378" s="6" t="s">
         <v>309</v>
       </c>
@@ -9655,7 +10254,9 @@
       </c>
     </row>
     <row r="379" spans="1:6" s="6" customFormat="1">
-      <c r="A379" s="21"/>
+      <c r="A379" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B379" s="6" t="s">
         <v>428</v>
       </c>
@@ -9673,7 +10274,9 @@
       </c>
     </row>
     <row r="380" spans="1:6" s="6" customFormat="1">
-      <c r="A380" s="21"/>
+      <c r="A380" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B380" s="6" t="s">
         <v>429</v>
       </c>
@@ -9692,7 +10295,9 @@
       </c>
     </row>
     <row r="381" spans="1:6">
-      <c r="A381" s="21"/>
+      <c r="A381" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B381" t="s">
         <v>307</v>
       </c>
@@ -9710,7 +10315,9 @@
       </c>
     </row>
     <row r="382" spans="1:6" s="6" customFormat="1">
-      <c r="A382" s="21"/>
+      <c r="A382" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B382" s="6" t="s">
         <v>433</v>
       </c>
@@ -9729,7 +10336,9 @@
       </c>
     </row>
     <row r="383" spans="1:6">
-      <c r="A383" s="21"/>
+      <c r="A383" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B383" t="s">
         <v>163</v>
       </c>
@@ -9747,7 +10356,9 @@
       </c>
     </row>
     <row r="384" spans="1:6">
-      <c r="A384" s="21"/>
+      <c r="A384" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B384" t="s">
         <v>431</v>
       </c>
@@ -9765,7 +10376,9 @@
       </c>
     </row>
     <row r="385" spans="1:6">
-      <c r="A385" s="21"/>
+      <c r="A385" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B385" t="s">
         <v>432</v>
       </c>
@@ -9794,7 +10407,7 @@
       </c>
     </row>
     <row r="388" spans="1:6">
-      <c r="A388" s="21" t="s">
+      <c r="A388" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B388" t="s">
@@ -9814,7 +10427,9 @@
       </c>
     </row>
     <row r="389" spans="1:6">
-      <c r="A389" s="21"/>
+      <c r="A389" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B389" t="s">
         <v>220</v>
       </c>
@@ -9832,7 +10447,9 @@
       </c>
     </row>
     <row r="390" spans="1:6" s="6" customFormat="1">
-      <c r="A390" s="21"/>
+      <c r="A390" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B390" s="6" t="s">
         <v>314</v>
       </c>
@@ -9850,7 +10467,9 @@
       </c>
     </row>
     <row r="391" spans="1:6">
-      <c r="A391" s="21"/>
+      <c r="A391" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B391" t="s">
         <v>174</v>
       </c>
@@ -9868,7 +10487,9 @@
       </c>
     </row>
     <row r="392" spans="1:6">
-      <c r="A392" s="21"/>
+      <c r="A392" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B392" t="s">
         <v>313</v>
       </c>
@@ -9886,7 +10507,9 @@
       </c>
     </row>
     <row r="393" spans="1:6" s="6" customFormat="1">
-      <c r="A393" s="21"/>
+      <c r="A393" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B393" s="6" t="s">
         <v>212</v>
       </c>
@@ -9904,7 +10527,9 @@
       </c>
     </row>
     <row r="394" spans="1:6">
-      <c r="A394" s="21"/>
+      <c r="A394" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B394" t="s">
         <v>238</v>
       </c>
@@ -9933,7 +10558,7 @@
       </c>
     </row>
     <row r="397" spans="1:6">
-      <c r="A397" s="21" t="s">
+      <c r="A397" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B397" t="s">
@@ -9953,7 +10578,9 @@
       </c>
     </row>
     <row r="398" spans="1:6">
-      <c r="A398" s="21"/>
+      <c r="A398" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B398" t="s">
         <v>317</v>
       </c>
@@ -9971,7 +10598,9 @@
       </c>
     </row>
     <row r="399" spans="1:6">
-      <c r="A399" s="21"/>
+      <c r="A399" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B399" t="s">
         <v>208</v>
       </c>
@@ -9989,7 +10618,9 @@
       </c>
     </row>
     <row r="400" spans="1:6">
-      <c r="A400" s="21"/>
+      <c r="A400" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B400" t="s">
         <v>318</v>
       </c>
@@ -10022,36 +10653,6 @@
       <c r="A405" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A397:A400"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A313:A327"/>
-    <mergeCell ref="A85:A95"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A8:A33"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A60:A71"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A219:A248"/>
-    <mergeCell ref="A251:A257"/>
-    <mergeCell ref="A260:A269"/>
-    <mergeCell ref="A272:A277"/>
-    <mergeCell ref="A110:A121"/>
-    <mergeCell ref="A124:A169"/>
-    <mergeCell ref="A172:A200"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A207:A216"/>
-    <mergeCell ref="A356:A370"/>
-    <mergeCell ref="A373:A385"/>
-    <mergeCell ref="A388:A394"/>
-    <mergeCell ref="A280:A310"/>
-    <mergeCell ref="A330:A353"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10754,7 +11355,7 @@
       <c r="A72" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="22">
+      <c r="B72" s="21">
         <v>1</v>
       </c>
       <c r="C72" s="11" t="s">
@@ -10763,7 +11364,7 @@
     </row>
     <row r="73" spans="1:3" ht="17" customHeight="1">
       <c r="A73" s="9"/>
-      <c r="B73" s="22"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="6" t="s">
         <v>121</v>
       </c>
@@ -10772,7 +11373,7 @@
       <c r="A74" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="22"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="13" t="s">
         <v>30</v>
       </c>
@@ -10928,7 +11529,7 @@
       <c r="A90" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B90" s="22">
+      <c r="B90" s="21">
         <v>1</v>
       </c>
       <c r="C90" s="11" t="s">
@@ -10937,7 +11538,7 @@
     </row>
     <row r="91" spans="1:3" ht="17" customHeight="1">
       <c r="A91" s="9"/>
-      <c r="B91" s="22"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="6" t="s">
         <v>124</v>
       </c>
@@ -10946,7 +11547,7 @@
       <c r="A92" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B92" s="22"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="13" t="s">
         <v>30</v>
       </c>
